--- a/Analog integrated circuit design/exp2/实验2计算数据0106.xlsx
+++ b/Analog integrated circuit design/exp2/实验2计算数据0106.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表4.1" sheetId="1" r:id="rId1"/>
+    <sheet name="表4.4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t xml:space="preserve">器件标号 </t>
   </si>
@@ -38,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反相器 PMOS 与 NMOS 管的优化宽度比β=3.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total Width/n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +60,87 @@
   </si>
   <si>
     <t>PM0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Length </t>
+  </si>
+  <si>
+    <t>Total
+Width</t>
+  </si>
+  <si>
+    <t>Multiplier
+/Fingers</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1u </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p18 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">根据工艺参数合理设计 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PM1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">器件标号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010n*8=16.08u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.08u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.08u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反相器 PMOS 与 NMOS 管的优化宽度比β=4.014345=4.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +162,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -410,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -425,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -436,10 +523,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>180</v>
@@ -453,17 +540,17 @@
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>180</v>
       </c>
       <c r="D5" s="1">
-        <f>3.7*D4</f>
-        <v>1850</v>
+        <f>4.02*D4</f>
+        <v>2009.9999999999998</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -477,4 +564,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="15.375" style="1"/>
+    <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>